--- a/Documents/reviews_url2.xlsx
+++ b/Documents/reviews_url2.xlsx
@@ -444,7 +444,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Camera 3/5Battery 5/5Display 4/5Performance 5/5Phone is far Good though its HD+Resolution its UI manages good Viewing angles And It has a massive battery but weight distribution made is good and looks like some what weight lessNote:There is one bug in Realme ui 2.0 which came as a trial version in device after one security update. Pictures which taken in Default camera is over sharpened and not looked like naturally I hope They will fill this in next update.</t>
+          <t>RM6 PRO LONG TERM REVIEW Having used the Realme 6 pro for 30 days intensly ,I guess I can help all of you out there to make a well informed decison :) .I'm taking this effort so that you’ll know whether your money is worth investing on this phone.Please read on if you consider buying it.1) DESIGN : 4.5/5 .The phone feels premium and I love the flashy design of realme 6 pro.The weight is manageable once you get used to it .The design is subjective and is a matter of personal preference t...</t>
         </is>
       </c>
     </row>
@@ -454,7 +454,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>The phone is really good at this range.Main advantage is the battery , even continuous usage of it will make the full charge last atleast 2 days.The charger is bit big , might not fit in every plug sockets.It does take time to get fully charged but the awesome battery life covers it all.Nearby share, realme share , bedtime mode , access to international data without a sim card - these are some features available in it.Had read some reviews regarding it camera , and the thing is , the c...</t>
+          <t>Undoubtedly this is a masterpiece. I took about a year to decide and am COMPLETELY satisfied. Here are the details:* Fantastic and perfect cameras. 100% value for your money. PERFECT results. I am over satisfied (I am also a DSLR photographer). The zoom is REALLY good, try it in the daylight. Night mode is much superior as compared to the other handsets. The best part is that it has a front-facing ultra-wide-angle selfie camera too. Trust me, you'll NEVER regret once you buy it. Everything ...</t>
         </is>
       </c>
     </row>
@@ -464,7 +464,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Phone is really good must buy guys... Highly recommended 🙂🙂🙂 and the delivery tym is also fast my mom really like it... Traffic product</t>
+          <t>I received this on my birthday . Real happy. Good camera . Battery life is also very good. It takes 1 hours to full charge . We can play pubg smoothly . Happy to buy from Flipkart . Thanks Flipkart highly recommend to buy this phone.value for money phone .</t>
         </is>
       </c>
     </row>
@@ -474,7 +474,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Thank you Flipkart for delivering the phone before time. I loved the matte finish on the back which helps to get less scratches on it. I loved all the features of this phone and it feels so smooth while using! The delivery boy was a good guy too and spoke politely.I loved the camera, battery and display. It'd be better if the phone has a FHD+ display, but that's okay. The bigger battery, bigger screen and bigger camera satisfy me properly.</t>
+          <t>I've been using Realme 6 Pro (6GB/128GB) since 10 days &amp; from day 1 it had been a heck of an experience. I must say I've never seen such an amazing device in a decade, The uniqueness of this device is exactly what grabs the interest of the user.                      The performance, the outlook ! Wow... Realme just did it. The 64 MP AI Quad Cam is a beast in itself.. and it feels good to have a Qual comm Snapdragon 720g processor I mean it's the next level. And how could I even forget to men...</t>
         </is>
       </c>
     </row>
@@ -484,7 +484,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>I'll not pretend to be an expert and review things as per their utility to me.I don't play a single game on my phone, so don't need heavy GPU and clock numbers etc etc.I do use the phone as an average young adult, making frequent videocalls. This phone's battery is an ally for at least a day and a half. Charging as many have stated via the Dash charger may not be as quick as many rivals in the game, for a good 3 hours of charge... this phone will do you good for a day and a half of moderate...</t>
+          <t>Good camera .. but not the best as images are sometimes noisy when zoom in for a bit.. selfie camera is better than rear camera.. fast charging and battery backup are really good.. overall a good phone .. but slightly overprice.. here are my best shots from the mobile</t>
         </is>
       </c>
     </row>
@@ -494,7 +494,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Decent micro photography on this device but overall, it having Best performance.....at this price like is Value for money product. If budget is around 10k then this is one of the the best choice at this segment. 2 days of battery backup easily get by using normal uses but charging may be fast ,,, it takes 3 - 4 Hr to full charge accordingly the 18 W fast charging.Camera is good according to the price but, update is required for proper processing and output the picture quality. Baki overall...</t>
+          <t>Worth it....1stly I Will talk about Flipkart service it is awesome everytime....Mobile is superb...NYC battery backup NYC display smooth touch superb design  ...Camera is also superb but after 20x zoom it doesn't give clear pic ...Mobile don't get heated after heavy use also for this a big thumbs up....Total I think it is a superb mob.... don't think go for it just buy ittttt....Wowwwww</t>
         </is>
       </c>
     </row>
@@ -504,7 +504,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1)Helio G85-The highlighting feature which makes performance flawless at this range.Ram could have been 6gb but 4gb is pretty good if you aren't targetting too heavy games2)18 w fast charging- This is too bad I guess for a this generation phone since it takes almost takes 3.5 hrs to completely charge the 6000mah huge battery.2-2.5 he's could have been pretty good since it mentions fast charging.3)The camera performance is descent although it struggles in low light which is common for its p...</t>
+          <t>Best in segment todayDisplay is good visibility is nice but this phone should have amoled display for better viewing experience because amoled is better far better than 90hz display but 90hz is super smooth 120hz is battery killer but 90 is perfect for this phone. Camera is best and full of features not as sharp and crisp as poco x2 because of sony sensor. it has tons of features will upload a camera review on YouTube. Portrait blur in video mode is awesome front slow motion and wide ang...</t>
         </is>
       </c>
     </row>
@@ -514,7 +514,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Rear camera is very nice and front camera is decent performance is awesome but overall mobile phone is good. Battery backup is awesome 👍 ❤️♥️ Love it. (Thanks ❤️ Flipkart) &amp; my total lines is (is)😄😋😜🤪</t>
+          <t>Ok...this is literally the best phone in the segment. Battery is insane, performance/gaming is fantastic, cameras are incredible and overall this phone is just amazing value for money. Although the POCO X2 has a bigger battery than this phone, it's 120hz display sucks alot of power and drains is quicker so battery is better on this phone.....</t>
         </is>
       </c>
     </row>
@@ -524,7 +524,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>I buy this mobile for my daddy, He used 2gb/16gb smart phone, so this is a big upgrade for him. He like this mobile,  and happy to use it. I think in 2020 this is the best mobile at this price.Battery &amp; back camera are best, other things are also good. I give this mobile 4.7 out of 5.</t>
+          <t>Awesome camera, front and back camera good performance.good battery backup, display so smooth, no lag for pubg, worth for mony,, thank you flipkart,,, love from tamil nadu...</t>
         </is>
       </c>
     </row>
@@ -534,7 +534,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>This phone is ok for me but I don't think that it is 6000 MH battery camera is well but I didn't test fingerprint and face lock so I don't know about that and to the delivery was late  I mean so so late and if we go on YouTube it it does not give you a clear quality in Samsung A10 when you see on 240 p it will look clear but if you will match with this phone it will give you that quality in 320p everything is right  it is my honest review hope you will like it it's not bad but not so ok</t>
+          <t>Detailed Review - I have Been Using this phone from last 4 DaysExcellent Delivery By Flipkart Less Than 24HrsPros - 1.  Battery Lasts More Than 46Hrs for Heavy Usage Like Call, FB, Twitter, Live TV Etc2. Performance - 5 Star - Not even a single second Lag3. Camera -4.5 Star - A bit Photo Blurr of 64 MP Camera, Else than that Every Thing Is Perfect. 4. UI - Same Like Apple iPhone Controls are Fascinating. Much Better Than Color OS.Cons - Till Date NO, Will Update Soon</t>
         </is>
       </c>
     </row>
@@ -544,7 +544,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>I'm writing this review after 3 months of usage. PRONS:-1. Front selfie camera is best It's just 8MP but really gives resolution of 32 MP. 2. The phone is still not lagging and performance is good enough. CONS:-1. The back camera is not so good. It's just o.k and up to mark.2. The resolution of phone is not so good.3. The look is just satisfying l.4. Gives good experience while playing games but not so great feel for gamers.</t>
+          <t>I think it is best for it's price The camera is awesome The SD 720G is very thermal and battery efficient It gives an excellent performance while gaming I think the diaplay is not such great, the colours in the diaplay is not so much accurate like poco x2, but the 90 hetz display is awesome If I talk about the camera quality, it is also best in it's price range. I think realme had not added the camera sensors just to increase the count specially the 12mp telephoto sensor is more acceptab...</t>
         </is>
       </c>
     </row>
@@ -554,7 +554,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>The wrost product I ever used. becauseno auto call recourdingproximity sencer issue, some time when put phone on ear, screen get on and while in hand screen goes of, after restarting works normalhangs very muchbatty doesnt go for one dayonly good part is its heavy, can use like stone , it hits heard</t>
+          <t>It's the best... I'm experiencing both poco x2 and realme 6 pro And I would say both are very good.. If you want a futuristic WELL BALANCED, GOOD QUALITY, DURABLE PHONE with good battery life pay a little bit extra.. go with realme otherwise if you want a good gaming oriented phone and battery doesn't matter for you go with (you know)... Reasons to buy :--New processor always better than its small successer -navic support -future ready 90 hz display (that is greater than 60hz) -Good (...</t>
         </is>
       </c>
     </row>
@@ -564,7 +564,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>This phone is awesome Best phone in 10k,&amp;inFlipkart.........All things in this phoneIs very good work also very goodsU should buy this phoneThere is no any problemsIn this phone...Don't hesitate to buy this phoneThis few words are written by RKM 79...</t>
+          <t>The Camera📸(64 MP quad cam - Samsung Icocell GW1 sensor)provided is well satisfactory with great stabilisation features ,modes  and camera composition.You could have 20x zoom but don't expect clarity with increasing zoom.It is interesting to have 12 MP telephoto lens which benefits vlogging.There is a slight camera bump (not an issue). When it comes to the front cam ,you have got a dual selfie cam with 16MP primary lens and additional 8MP wide lens ,so u could have greater coverage or field ...</t>
         </is>
       </c>
     </row>
@@ -574,7 +574,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Real narjo20 is the best price android mobile with good camera, good battery backup and smoothly touching</t>
+          <t>I have been using this phone extensively for a week.1. First the camera which is decent for the price segment. 64 MP clicks nice , clear pictures. Portrait mode works perfect. Macro lens is useless and clicks very bad resolution photos. The zoom is good and thanks to 12 MP telephoto lens for that. Front selfie camera is very good. Ultra wide photos from the frontal camera do struggle in low lighting but they are good when the light is perfect. No noise in the photos from both rear and front ...</t>
         </is>
       </c>
     </row>
@@ -584,7 +584,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Nice phone good performance and better battery 🔋 backup good camera 📷</t>
+          <t>🚫Only problem is that it is not communicating with "Navigation with Indian constellation" (NavIC) as per the test result by "GPSTest".(Edit) 👉Thanks realme - my problem is resolved with the update on 17th March 2020. Really appreciate it. Thanks again.Otherwise:-✅ Value for money- 🌟🌟🌟🌟🌟= 5 stars (It eliminate all of it's competitors by giving some best flagship features (Excellent camera,God like gaming performance,Buttery smooth display due 90 hz refresh rate same as OnePlus 7 pro...</t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Very nice smartphone in this price catagory. It has Mediatek helio G85 processor which is a very capable gaming processor. It has 6000 mah massive battery. 4 GB RAM &amp; 128 GB ROM varient works flawlessly. The only thing I didn't liked is that it has HD+ Display whereas in this price range many smartphones give a FHD+ Display. So, it has Widevine L3 support and you can't stream HD videos. In youtube also 720P videos can be seen. Camera is very nice in this price as it has 48 MP camera but front...</t>
+          <t>Features are Good, and the camera is decent and the built quality with that lighting design is eye catching,The camera has 20x zoom which does a great job in well lighting conditions, the ram management is doing a good job, and coming to the processor"720G" is good in managing the graphics with no lags.Battery is really good in this device and it comes all day even if you are a heavy user, It also charges from 0% to 100% in 1hr 10 min. And the realme UI is really done well. Mobile network...</t>
         </is>
       </c>
     </row>
@@ -604,7 +604,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Phone is good but basic functionality are not working like display is not going to work after lifting incoming call. This issue seen from day 1 onwards. I got to know from customer care I.e., after upgrading software then only basic functionalities will work. Upgraded three times but issue not fixed. Now still using this phone with same issue.</t>
+          <t>Pros ::1.90hz screen refresh rate was good and 120hz touch sampling rate.2. the gaming experience was good.3.the telephoto lens was an advantage.Cons ::1.Camera quality was not that good even of 64MP Samsung sensor they should have gone for the Sony instead2.Ram management was poor bcoz there is only 2.9GB available out of 6GB and no background apps running3.the realme UI was not that good not in terms of features but in terms of speed &amp; smooth like Oxygen os4.the full screen was n...</t>
         </is>
       </c>
     </row>
@@ -614,7 +614,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Better to buy Poco M2, moto g9 power or most preferably Redmi 9 Power, which are nearly the same price as Narzo 20. The camera is nearly same in picture quality, the battery is same but there is a clean UI in Moto and Realme phones.But The RAM, processor and screen quality is better in Moto and Poco. There is no Case, no fast charge, no earphones, no ir blaster, no fhd+ screen, in Narzo.</t>
+          <t>The phone is awesome but display is not good , the display panel is poor and there is  a red tone , I noticed some screen bleed outside the front camera , but camera awesome , performance best is this price segment , fast charger is also very good battery backup is also good , looks also very good , Overall I have to say that If you want a good display phone then you don't go with this , if you need better camera and gaming performance then you will go with this phone .</t>
         </is>
       </c>
     </row>
@@ -624,7 +624,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Camera quality is awesome ....good battery backup.An affordable phone in a reasonable price ...I loved it</t>
+          <t>I have looking some feature loaded phones. I have an option of few more phone in my list but I chose realme 6 pro. i an good with this phone. Battery is too good. Performance is fantastic. Display is mind blowing and main features of this phone 90hz Refresh rate display and with good package of cameras. I am loving it this phone of every features. overall best basic flagship phone. you gonna love it this phone. but cons of this phone is heavy phone is some long time holding this phone but it ...</t>
         </is>
       </c>
     </row>
@@ -634,7 +634,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Phone is good but much heavy. My hand got pained after 20 minut voice call. But phone is really good.  Camera,battery , display, and performance both are not only good but super se BHI upar.</t>
+          <t>Battery drain so fast as I am a usual gamer battery is not giving good backup.Camera is not to good only day photos are good but indoor photo are not too good.Processor is so powerful and excellent pubg playing experience on this awesome.Display is also cool however it is LCD screen display but colour Chromecast is managed so good.At last I just want so say value for money is not up to the expectation</t>
         </is>
       </c>
     </row>

--- a/Documents/reviews_url2.xlsx
+++ b/Documents/reviews_url2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B21"/>
+  <dimension ref="B1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,206 +438,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>RM6 PRO LONG TERM REVIEW Having used the Realme 6 pro for 30 days intensly ,I guess I can help all of you out there to make a well informed decison :) .I'm taking this effort so that you’ll know whether your money is worth investing on this phone.Please read on if you consider buying it.1) DESIGN : 4.5/5 .The phone feels premium and I love the flashy design of realme 6 pro.The weight is manageable once you get used to it .The design is subjective and is a matter of personal preference t...</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Undoubtedly this is a masterpiece. I took about a year to decide and am COMPLETELY satisfied. Here are the details:* Fantastic and perfect cameras. 100% value for your money. PERFECT results. I am over satisfied (I am also a DSLR photographer). The zoom is REALLY good, try it in the daylight. Night mode is much superior as compared to the other handsets. The best part is that it has a front-facing ultra-wide-angle selfie camera too. Trust me, you'll NEVER regret once you buy it. Everything ...</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>I received this on my birthday . Real happy. Good camera . Battery life is also very good. It takes 1 hours to full charge . We can play pubg smoothly . Happy to buy from Flipkart . Thanks Flipkart highly recommend to buy this phone.value for money phone .</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>I've been using Realme 6 Pro (6GB/128GB) since 10 days &amp; from day 1 it had been a heck of an experience. I must say I've never seen such an amazing device in a decade, The uniqueness of this device is exactly what grabs the interest of the user.                      The performance, the outlook ! Wow... Realme just did it. The 64 MP AI Quad Cam is a beast in itself.. and it feels good to have a Qual comm Snapdragon 720g processor I mean it's the next level. And how could I even forget to men...</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Good camera .. but not the best as images are sometimes noisy when zoom in for a bit.. selfie camera is better than rear camera.. fast charging and battery backup are really good.. overall a good phone .. but slightly overprice.. here are my best shots from the mobile</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Worth it....1stly I Will talk about Flipkart service it is awesome everytime....Mobile is superb...NYC battery backup NYC display smooth touch superb design  ...Camera is also superb but after 20x zoom it doesn't give clear pic ...Mobile don't get heated after heavy use also for this a big thumbs up....Total I think it is a superb mob.... don't think go for it just buy ittttt....Wowwwww</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Best in segment todayDisplay is good visibility is nice but this phone should have amoled display for better viewing experience because amoled is better far better than 90hz display but 90hz is super smooth 120hz is battery killer but 90 is perfect for this phone. Camera is best and full of features not as sharp and crisp as poco x2 because of sony sensor. it has tons of features will upload a camera review on YouTube. Portrait blur in video mode is awesome front slow motion and wide ang...</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Ok...this is literally the best phone in the segment. Battery is insane, performance/gaming is fantastic, cameras are incredible and overall this phone is just amazing value for money. Although the POCO X2 has a bigger battery than this phone, it's 120hz display sucks alot of power and drains is quicker so battery is better on this phone.....</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Awesome camera, front and back camera good performance.good battery backup, display so smooth, no lag for pubg, worth for mony,, thank you flipkart,,, love from tamil nadu...</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Detailed Review - I have Been Using this phone from last 4 DaysExcellent Delivery By Flipkart Less Than 24HrsPros - 1.  Battery Lasts More Than 46Hrs for Heavy Usage Like Call, FB, Twitter, Live TV Etc2. Performance - 5 Star - Not even a single second Lag3. Camera -4.5 Star - A bit Photo Blurr of 64 MP Camera, Else than that Every Thing Is Perfect. 4. UI - Same Like Apple iPhone Controls are Fascinating. Much Better Than Color OS.Cons - Till Date NO, Will Update Soon</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>I think it is best for it's price The camera is awesome The SD 720G is very thermal and battery efficient It gives an excellent performance while gaming I think the diaplay is not such great, the colours in the diaplay is not so much accurate like poco x2, but the 90 hetz display is awesome If I talk about the camera quality, it is also best in it's price range. I think realme had not added the camera sensors just to increase the count specially the 12mp telephoto sensor is more acceptab...</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>It's the best... I'm experiencing both poco x2 and realme 6 pro And I would say both are very good.. If you want a futuristic WELL BALANCED, GOOD QUALITY, DURABLE PHONE with good battery life pay a little bit extra.. go with realme otherwise if you want a good gaming oriented phone and battery doesn't matter for you go with (you know)... Reasons to buy :--New processor always better than its small successer -navic support -future ready 90 hz display (that is greater than 60hz) -Good (...</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>The Camera📸(64 MP quad cam - Samsung Icocell GW1 sensor)provided is well satisfactory with great stabilisation features ,modes  and camera composition.You could have 20x zoom but don't expect clarity with increasing zoom.It is interesting to have 12 MP telephoto lens which benefits vlogging.There is a slight camera bump (not an issue). When it comes to the front cam ,you have got a dual selfie cam with 16MP primary lens and additional 8MP wide lens ,so u could have greater coverage or field ...</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>I have been using this phone extensively for a week.1. First the camera which is decent for the price segment. 64 MP clicks nice , clear pictures. Portrait mode works perfect. Macro lens is useless and clicks very bad resolution photos. The zoom is good and thanks to 12 MP telephoto lens for that. Front selfie camera is very good. Ultra wide photos from the frontal camera do struggle in low lighting but they are good when the light is perfect. No noise in the photos from both rear and front ...</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>🚫Only problem is that it is not communicating with "Navigation with Indian constellation" (NavIC) as per the test result by "GPSTest".(Edit) 👉Thanks realme - my problem is resolved with the update on 17th March 2020. Really appreciate it. Thanks again.Otherwise:-✅ Value for money- 🌟🌟🌟🌟🌟= 5 stars (It eliminate all of it's competitors by giving some best flagship features (Excellent camera,God like gaming performance,Buttery smooth display due 90 hz refresh rate same as OnePlus 7 pro...</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Features are Good, and the camera is decent and the built quality with that lighting design is eye catching,The camera has 20x zoom which does a great job in well lighting conditions, the ram management is doing a good job, and coming to the processor"720G" is good in managing the graphics with no lags.Battery is really good in this device and it comes all day even if you are a heavy user, It also charges from 0% to 100% in 1hr 10 min. And the realme UI is really done well. Mobile network...</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Pros ::1.90hz screen refresh rate was good and 120hz touch sampling rate.2. the gaming experience was good.3.the telephoto lens was an advantage.Cons ::1.Camera quality was not that good even of 64MP Samsung sensor they should have gone for the Sony instead2.Ram management was poor bcoz there is only 2.9GB available out of 6GB and no background apps running3.the realme UI was not that good not in terms of features but in terms of speed &amp; smooth like Oxygen os4.the full screen was n...</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>The phone is awesome but display is not good , the display panel is poor and there is  a red tone , I noticed some screen bleed outside the front camera , but camera awesome , performance best is this price segment , fast charger is also very good battery backup is also good , looks also very good , Overall I have to say that If you want a good display phone then you don't go with this , if you need better camera and gaming performance then you will go with this phone .</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>I have looking some feature loaded phones. I have an option of few more phone in my list but I chose realme 6 pro. i an good with this phone. Battery is too good. Performance is fantastic. Display is mind blowing and main features of this phone 90hz Refresh rate display and with good package of cameras. I am loving it this phone of every features. overall best basic flagship phone. you gonna love it this phone. but cons of this phone is heavy phone is some long time holding this phone but it ...</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Battery drain so fast as I am a usual gamer battery is not giving good backup.Camera is not to good only day photos are good but indoor photo are not too good.Processor is so powerful and excellent pubg playing experience on this awesome.Display is also cool however it is LCD screen display but colour Chromecast is managed so good.At last I just want so say value for money is not up to the expectation</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
